--- a/biology/Zoologie/Eriophora_ravilla/Eriophora_ravilla.xlsx
+++ b/biology/Zoologie/Eriophora_ravilla/Eriophora_ravilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriophora ravilla est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriophora ravilla est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre des États-Unis au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre des États-Unis au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 9 à 13 mm et les femelles de 12 à 24 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 9 à 13 mm et les femelles de 12 à 24 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira ravilla par C. L. Koch en 1844. Elle est placée dans le genre Eriophora par F. O. Pickard-Cambridge en 1904[3].
-Epeira nicaraguensis[4], Epeira balaustina[5], Epeira variolata[6] et Epeira minax[7] ont été placées en synonymie par Levi en 1971[8].
-Araneus lineatus[9] a été placée en synonymie par Alayón et Sherwood en 2022[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira ravilla par C. L. Koch en 1844. Elle est placée dans le genre Eriophora par F. O. Pickard-Cambridge en 1904.
+Epeira nicaraguensis, Epeira balaustina, Epeira variolata et Epeira minax ont été placées en synonymie par Levi en 1971.
+Araneus lineatus a été placée en synonymie par Alayón et Sherwood en 2022.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1844 : Die Arachniden. Nürnberg, vol. 11, p. 1-174 (texte intégral).</t>
         </is>
